--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed1/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.052000000000001</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.969999999999999</v>
+        <v>5.787</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.422</v>
+        <v>5.396000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.480000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.588</v>
+        <v>5.464</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.834000000000001</v>
+        <v>8.006</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.550000000000001</v>
+        <v>8.894</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.586</v>
+        <v>5.624000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.502</v>
+        <v>5.306</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -852,7 +852,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.853999999999999</v>
+        <v>6.159000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.909999999999999</v>
+        <v>6.769999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>10.086</v>
+        <v>9.178999999999998</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.18</v>
+        <v>6.382000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.584</v>
+        <v>5.548</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.685999999999999</v>
+        <v>5.807</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.112</v>
+        <v>5.207</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.686</v>
+        <v>4.92</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,7 +1300,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.272</v>
+        <v>5.386</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.916</v>
+        <v>5.013</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.169999999999998</v>
+        <v>6.914000000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.108000000000001</v>
+        <v>9.164999999999999</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>5.715999999999999</v>
+        <v>5.586</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.616</v>
+        <v>4.893000000000001</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.986000000000001</v>
+        <v>5.968</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
